--- a/commerce_estate/nmarket/data/Luppolovo/Sales.xlsx
+++ b/commerce_estate/nmarket/data/Luppolovo/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,651 @@
           <t>Дата закрытия</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Высота потолка</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Год_сдачи</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Квартал_сдачи</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Тип_дома</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Парковка</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Вариант_оплаты</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Договор</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4839037</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/3630f39f-8f90-4c68-853b-bbd1288350ef/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>49.55</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>96</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>4872000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>98324.92432000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4872000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>136416</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>24/11/2023</t>
+        </is>
+      </c>
+      <c r="X2" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544392</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/85caceb8-70b6-4bca-9a17-7ba2634c058d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>4891670</v>
+      </c>
+      <c r="S3" t="n">
+        <v>98325.02512999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4891670</v>
+      </c>
+      <c r="U3" t="n">
+        <v>136967</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>13/12/2023</t>
+        </is>
+      </c>
+      <c r="X3" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544371</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/7e270010-18bb-4bd4-933d-5f04eb6310f3/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Лоджия на комнату и кухню</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>5266850</v>
+      </c>
+      <c r="S4" t="n">
+        <v>101188.2805</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5266850</v>
+      </c>
+      <c r="U4" t="n">
+        <v>147472</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>13/12/2023</t>
+        </is>
+      </c>
+      <c r="X4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544390</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/0933161c-1180-475c-88e0-eb235c79145a/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="F5" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>93</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>5309550</v>
+      </c>
+      <c r="S5" t="n">
+        <v>98325</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5309550</v>
+      </c>
+      <c r="U5" t="n">
+        <v>148667</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>13/12/2023</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544383</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/3d883b3a-2395-4d30-bcf7-ba94385b3702/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>57.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Лоджия на комнату и кухню</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>79</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>5619275</v>
+      </c>
+      <c r="S6" t="n">
+        <v>98325.02187</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5619275</v>
+      </c>
+      <c r="U6" t="n">
+        <v>157340</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>13/12/2023</t>
+        </is>
+      </c>
+      <c r="X6" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/commerce_estate/nmarket/data/Luppolovo/Sales.xlsx
+++ b/commerce_estate/nmarket/data/Luppolovo/Sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,11 @@
           <t>Договор</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Дата_сбора</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -706,6 +711,7 @@
           <t>К-П</t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -828,6 +834,7 @@
           <t>К-П</t>
         </is>
       </c>
+      <c r="AE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -950,6 +957,7 @@
           <t>К-П</t>
         </is>
       </c>
+      <c r="AE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1072,6 +1080,7 @@
           <t>К-П</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1192,6 +1201,9543 @@
       <c r="AD6" t="inlineStr">
         <is>
           <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544392</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/85caceb8-70b6-4bca-9a17-7ba2634c058d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4891670</v>
+      </c>
+      <c r="S7" t="n">
+        <v>98325.02512999999</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4891670</v>
+      </c>
+      <c r="U7" t="n">
+        <v>136967</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>19/1/2024</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544371</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/7e270010-18bb-4bd4-933d-5f04eb6310f3/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>52.05</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="F8" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Лоджия на комнату и кухню</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>28</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>5266850</v>
+      </c>
+      <c r="S8" t="n">
+        <v>101188.2805</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5266850</v>
+      </c>
+      <c r="U8" t="n">
+        <v>147472</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>19/1/2024</t>
+        </is>
+      </c>
+      <c r="X8" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544390</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/0933161c-1180-475c-88e0-eb235c79145a/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>93</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>5309550</v>
+      </c>
+      <c r="S9" t="n">
+        <v>98325</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5309550</v>
+      </c>
+      <c r="U9" t="n">
+        <v>148667</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>19/1/2024</t>
+        </is>
+      </c>
+      <c r="X9" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544383</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/3d883b3a-2395-4d30-bcf7-ba94385b3702/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>57.15</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Лоджия на комнату и кухню</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>79</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>5619275</v>
+      </c>
+      <c r="S10" t="n">
+        <v>98325.02187</v>
+      </c>
+      <c r="T10" t="n">
+        <v>5619275</v>
+      </c>
+      <c r="U10" t="n">
+        <v>157340</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>19/1/2024</t>
+        </is>
+      </c>
+      <c r="X10" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5501254</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/b3a65ccc-14a0-4ba2-a17b-4618cfb9beee/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>149</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>UniverCity</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>86769</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>4250212</v>
+      </c>
+      <c r="S11" t="n">
+        <v>169940.5038</v>
+      </c>
+      <c r="T11" t="n">
+        <v>5000249</v>
+      </c>
+      <c r="U11" t="n">
+        <v>119006</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гостевая </t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3816337</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/e5064705-e6ba-43cd-92bf-78a3f4db9c66/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>14</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>77352</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>5139825</v>
+      </c>
+      <c r="S12" t="n">
+        <v>207251.00806</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6192560</v>
+      </c>
+      <c r="U12" t="n">
+        <v>154195</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4723603</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/3cdb4d94-afbe-47d7-bddb-e189bd8bfc70/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Ново-Антропшино</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>82400</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Запстрой</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>3596860</v>
+      </c>
+      <c r="S13" t="n">
+        <v>149000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4231600</v>
+      </c>
+      <c r="U13" t="n">
+        <v>107906</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ипотека</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4720717</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/8144e69c-7958-4997-bff1-680fab7f4f0f/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="E14" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>302</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>81631</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>4650166</v>
+      </c>
+      <c r="S14" t="n">
+        <v>186678.68326</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5470784</v>
+      </c>
+      <c r="U14" t="n">
+        <v>130205</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X14" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5852581</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/722f88c3-0790-4fae-a1e7-c59d5bef642f/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22.07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>88325</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2 кв. 2026</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>3900100</v>
+      </c>
+      <c r="S15" t="n">
+        <v>176714.99773</v>
+      </c>
+      <c r="T15" t="n">
+        <v>4588353</v>
+      </c>
+      <c r="U15" t="n">
+        <v>109203</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2026</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4412615</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/6362a5f2-2aa1-49fe-8720-d0278fb1deed/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>271</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>79826</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>5650118</v>
+      </c>
+      <c r="S16" t="n">
+        <v>220277.50487</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6647198</v>
+      </c>
+      <c r="U16" t="n">
+        <v>158203</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4587433</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/2f901e9e-d506-4acf-bcb5-5ca8019642ff/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="E17" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>119</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>81556</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>5550071</v>
+      </c>
+      <c r="S17" t="n">
+        <v>223702.98267</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6529496</v>
+      </c>
+      <c r="U17" t="n">
+        <v>155402</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4689731</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/831bfcac-dbc1-45ad-aed3-6fa9d4695f58/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>24.81</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="F18" t="n">
+        <v>18.03</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>261</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>82167</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>1 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>5550071</v>
+      </c>
+      <c r="S18" t="n">
+        <v>223702.98267</v>
+      </c>
+      <c r="T18" t="n">
+        <v>6529496</v>
+      </c>
+      <c r="U18" t="n">
+        <v>155402</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5819580</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/376b1101-8978-4ab5-a7f1-db7f979ceb82/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>42.52</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20.03</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>46</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Верево-Сити</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>88205</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>4889800</v>
+      </c>
+      <c r="S19" t="n">
+        <v>115000</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4889800</v>
+      </c>
+      <c r="U19" t="n">
+        <v>117355</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X19" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Встроено-пристроенная </t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ипотека</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4617613</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/31a26d9a-b95f-4ac0-a707-bdaf956e4560/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>37.51</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>60</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>80634</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>3 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>7832088</v>
+      </c>
+      <c r="S20" t="n">
+        <v>208800</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8394521</v>
+      </c>
+      <c r="U20" t="n">
+        <v>125313</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X20" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5167250</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/9e660453-e9ce-4ef8-bec5-6e3746f2048a/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="n">
+        <v>174</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>84829</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>6119805</v>
+      </c>
+      <c r="S21" t="n">
+        <v>207100</v>
+      </c>
+      <c r="T21" t="n">
+        <v>7346705</v>
+      </c>
+      <c r="U21" t="n">
+        <v>97917</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X21" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5859071</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/a0a9dd1e-3b6f-4fc2-bb3e-a01e297f41c5/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>207</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>79130</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>7300211</v>
+      </c>
+      <c r="S22" t="n">
+        <v>222567.40854</v>
+      </c>
+      <c r="T22" t="n">
+        <v>8588483</v>
+      </c>
+      <c r="U22" t="n">
+        <v>204406</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X22" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4407935</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/c1b3e7c2-f0fb-42fa-b6f8-98d3391e3b19/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>32.17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>360</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>79826</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>1 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>7700211</v>
+      </c>
+      <c r="S23" t="n">
+        <v>239359.99378</v>
+      </c>
+      <c r="T23" t="n">
+        <v>9059072</v>
+      </c>
+      <c r="U23" t="n">
+        <v>215606</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X23" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4587486</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/5ac92754-9ab5-4d1a-8e7d-fd1eddbcaff4/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>10.03</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>171</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>81556</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>1 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>8300131</v>
+      </c>
+      <c r="S24" t="n">
+        <v>226100</v>
+      </c>
+      <c r="T24" t="n">
+        <v>9764860</v>
+      </c>
+      <c r="U24" t="n">
+        <v>232404</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4617419</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/70d29bf2-59a8-4a63-aed9-71d64be46d35/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>49.99</v>
+      </c>
+      <c r="E25" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>127</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>80634</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>3 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>10837832</v>
+      </c>
+      <c r="S25" t="n">
+        <v>216800</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11616111</v>
+      </c>
+      <c r="U25" t="n">
+        <v>173405</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X25" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883614</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/8b99a8e9-6238-438e-969f-d864997c693d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>77.66</v>
+      </c>
+      <c r="E26" t="n">
+        <v>44.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>14463020</v>
+      </c>
+      <c r="S26" t="n">
+        <v>186235.12748</v>
+      </c>
+      <c r="T26" t="n">
+        <v>14463020</v>
+      </c>
+      <c r="U26" t="n">
+        <v>504759</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>3ккв</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>2/2/2024</t>
+        </is>
+      </c>
+      <c r="X26" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4544392</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/85caceb8-70b6-4bca-9a17-7ba2634c058d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E27" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Луговое</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>81386</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>СМУ-47</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>4891670</v>
+      </c>
+      <c r="S27" t="n">
+        <v>98325.02512999999</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4891670</v>
+      </c>
+      <c r="U27" t="n">
+        <v>136967</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X27" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5501309</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/b246d22a-7759-4877-bbb7-7df65d547091/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="E28" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="F28" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>248</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>UniverCity</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>86769</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>4 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>4550040</v>
+      </c>
+      <c r="S28" t="n">
+        <v>179417.98107</v>
+      </c>
+      <c r="T28" t="n">
+        <v>5352989</v>
+      </c>
+      <c r="U28" t="n">
+        <v>127401</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X28" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гостевая </t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3907417</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/e506de3f-4831-4972-8630-226bea65beef/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F29" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>25</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>77780</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>4894734</v>
+      </c>
+      <c r="S29" t="n">
+        <v>203100.99585</v>
+      </c>
+      <c r="T29" t="n">
+        <v>5897270</v>
+      </c>
+      <c r="U29" t="n">
+        <v>146842</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3816385</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/c26cf773-8e2e-4dc6-9694-446c0d3c5bd9/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>26</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>77352</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>5077650</v>
+      </c>
+      <c r="S30" t="n">
+        <v>207251.02041</v>
+      </c>
+      <c r="T30" t="n">
+        <v>6117650</v>
+      </c>
+      <c r="U30" t="n">
+        <v>152330</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5819558</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/d26d899c-3177-478f-b487-02e73940ff7f/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>19</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Верево-Сити</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>88205</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2538000</v>
+      </c>
+      <c r="S31" t="n">
+        <v>135000</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2538000</v>
+      </c>
+      <c r="U31" t="n">
+        <v>60912</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X31" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Встроено-пристроенная </t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ипотека</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5849997</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/f6ce314a-9b5b-433a-b101-5434c2b5e552/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>88325</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2 кв. 2026</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>4000088</v>
+      </c>
+      <c r="S32" t="n">
+        <v>183574.48371</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4705986</v>
+      </c>
+      <c r="U32" t="n">
+        <v>112002</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2026</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5501196</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/24cfe367-4eb7-4c09-818e-ccd4313788af/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>39.23</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>32</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>UniverCity</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>86769</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>4 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>7050239</v>
+      </c>
+      <c r="S33" t="n">
+        <v>179715.49834</v>
+      </c>
+      <c r="T33" t="n">
+        <v>8294399</v>
+      </c>
+      <c r="U33" t="n">
+        <v>197407</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X33" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гостевая </t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5819596</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/cfb321bc-a610-47bd-9d3e-cbf3155bb97b/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>29.71</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>67</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Верево-Сити</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>88205</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>НСК</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>3268100</v>
+      </c>
+      <c r="S34" t="n">
+        <v>110000</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3268100</v>
+      </c>
+      <c r="U34" t="n">
+        <v>78434</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X34" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Встроено-пристроенная </t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Ипотека</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5166287</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/4238d223-9f87-49d8-9c80-16593fc68e02/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F35" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>123</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>84828</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>6164130</v>
+      </c>
+      <c r="S35" t="n">
+        <v>208600</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7399916</v>
+      </c>
+      <c r="U35" t="n">
+        <v>98626</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5166299</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/c76c5036-b167-43b3-b84a-f59c07142015/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="E36" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>131</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>84828</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>6409392</v>
+      </c>
+      <c r="S36" t="n">
+        <v>218900</v>
+      </c>
+      <c r="T36" t="n">
+        <v>7694348</v>
+      </c>
+      <c r="U36" t="n">
+        <v>102550</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X36" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5166353</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/92d6d5bb-510a-461d-807e-0c4daf052607/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>29.28</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F37" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" t="n">
+        <v>182</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>84828</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>6409392</v>
+      </c>
+      <c r="S37" t="n">
+        <v>218900</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7694348</v>
+      </c>
+      <c r="U37" t="n">
+        <v>102550</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X37" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3955919</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/47021938-f822-48b0-a28e-97ffe3e12e5e/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>37.48</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>134</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Новое Сертолово</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>77992</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>6633960</v>
+      </c>
+      <c r="S38" t="n">
+        <v>177000</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6633960</v>
+      </c>
+      <c r="U38" t="n">
+        <v>106143</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4279542</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/36b7f393-a43c-471d-a10d-c7ab37d2b4d5/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>35.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="F39" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>54</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>79992</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>6900003</v>
+      </c>
+      <c r="S39" t="n">
+        <v>192737.51397</v>
+      </c>
+      <c r="T39" t="n">
+        <v>8117650</v>
+      </c>
+      <c r="U39" t="n">
+        <v>193200</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X39" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3884006</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/835bfa24-e55a-4e3a-9a50-9014a9c500e1/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="E40" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>213</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>8514090</v>
+      </c>
+      <c r="S40" t="n">
+        <v>220173.00233</v>
+      </c>
+      <c r="T40" t="n">
+        <v>8514090</v>
+      </c>
+      <c r="U40" t="n">
+        <v>297142</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883705</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/1f142f1a-396d-437b-afc1-c6398577369d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>90</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>8622030</v>
+      </c>
+      <c r="S41" t="n">
+        <v>224824.77184</v>
+      </c>
+      <c r="T41" t="n">
+        <v>8622030</v>
+      </c>
+      <c r="U41" t="n">
+        <v>300909</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883998</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/654d6e26-0e24-4d43-b2e1-dbfcc347d8fc/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="E42" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>158</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>8637840</v>
+      </c>
+      <c r="S42" t="n">
+        <v>223373.15749</v>
+      </c>
+      <c r="T42" t="n">
+        <v>8637840</v>
+      </c>
+      <c r="U42" t="n">
+        <v>301461</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X42" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883946</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/b81f6004-3169-4b3d-8b4b-772ea01e8050/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="E43" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>154</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>8690270</v>
+      </c>
+      <c r="S43" t="n">
+        <v>224728.98888</v>
+      </c>
+      <c r="T43" t="n">
+        <v>8690270</v>
+      </c>
+      <c r="U43" t="n">
+        <v>303290</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883960</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/01b28d98-f27c-4013-ae5d-8fd0c0a4ebe6/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="E44" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>180</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>8789550</v>
+      </c>
+      <c r="S44" t="n">
+        <v>229192.95958</v>
+      </c>
+      <c r="T44" t="n">
+        <v>8789550</v>
+      </c>
+      <c r="U44" t="n">
+        <v>306755</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X44" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883992</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/4664df5a-3b04-4518-b41e-390c5424d7c5/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>38.35</v>
+      </c>
+      <c r="E45" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>176</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>8835390</v>
+      </c>
+      <c r="S45" t="n">
+        <v>230388.26597</v>
+      </c>
+      <c r="T45" t="n">
+        <v>8835390</v>
+      </c>
+      <c r="U45" t="n">
+        <v>308355</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5150654</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/540b41ab-b7ba-445d-a0b0-f0ea6e026afa/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>159</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>ЮгТаун.Греция</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>84630</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>3 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>10321200</v>
+      </c>
+      <c r="S46" t="n">
+        <v>188000</v>
+      </c>
+      <c r="T46" t="n">
+        <v>11062379</v>
+      </c>
+      <c r="U46" t="n">
+        <v>371563</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X46" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>Блочно-монолитный</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3315967</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/ec795fad-70a0-4184-afad-8490d1102522/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>228</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>64988</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>11675160</v>
+      </c>
+      <c r="S47" t="n">
+        <v>203400</v>
+      </c>
+      <c r="T47" t="n">
+        <v>11675160</v>
+      </c>
+      <c r="U47" t="n">
+        <v>407463</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Субсидия, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3316104</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/09a4b27a-6cdf-4536-bfc1-35fb2e52d6d9/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>119</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>64988</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>12146680</v>
+      </c>
+      <c r="S48" t="n">
+        <v>198800</v>
+      </c>
+      <c r="T48" t="n">
+        <v>12146680</v>
+      </c>
+      <c r="U48" t="n">
+        <v>423919</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X48" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Субсидия, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883950</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/bdde9a52-a04a-45fe-a831-adcda98bb789/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="E49" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>159</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>11556240</v>
+      </c>
+      <c r="S49" t="n">
+        <v>212430.88235</v>
+      </c>
+      <c r="T49" t="n">
+        <v>11556240</v>
+      </c>
+      <c r="U49" t="n">
+        <v>403313</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883702</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/6297350b-9524-451b-891c-39348fed08f2/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="E50" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>89</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>12538320</v>
+      </c>
+      <c r="S50" t="n">
+        <v>213490.89052</v>
+      </c>
+      <c r="T50" t="n">
+        <v>12538320</v>
+      </c>
+      <c r="U50" t="n">
+        <v>437587</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X50" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883973</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/26f3abb6-747c-4201-8b00-3aa4a6f1bdd7/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="E51" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>181</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>12542400</v>
+      </c>
+      <c r="S51" t="n">
+        <v>213560.36097</v>
+      </c>
+      <c r="T51" t="n">
+        <v>12542400</v>
+      </c>
+      <c r="U51" t="n">
+        <v>437730</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883703</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/b21084b6-c352-4ed2-a034-945354460921/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>58.73</v>
+      </c>
+      <c r="E52" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>12597020</v>
+      </c>
+      <c r="S52" t="n">
+        <v>214490.3797</v>
+      </c>
+      <c r="T52" t="n">
+        <v>12597020</v>
+      </c>
+      <c r="U52" t="n">
+        <v>439636</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X52" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883647</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/82763fe0-3ce1-485c-a3cb-ee4179eb73d1/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="E53" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>34</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>12764690</v>
+      </c>
+      <c r="S53" t="n">
+        <v>212993.32555</v>
+      </c>
+      <c r="T53" t="n">
+        <v>12764690</v>
+      </c>
+      <c r="U53" t="n">
+        <v>445488</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X53" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3884007</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/709261bb-93a1-4680-b375-1eaed0a5d159/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>60.58</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>214</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>12870760</v>
+      </c>
+      <c r="S54" t="n">
+        <v>212458.89733</v>
+      </c>
+      <c r="T54" t="n">
+        <v>12870760</v>
+      </c>
+      <c r="U54" t="n">
+        <v>449190</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3883718</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/5433e430-b3ca-4c9f-bcfc-3bd50bbe9bb0/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>59.93</v>
+      </c>
+      <c r="E55" t="n">
+        <v>30.19</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5</v>
+      </c>
+      <c r="L55" t="n">
+        <v>95</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Юттери</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>77634</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Ленстройтрест</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Колпинский р-н</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>12980330</v>
+      </c>
+      <c r="S55" t="n">
+        <v>216591.52344</v>
+      </c>
+      <c r="T55" t="n">
+        <v>12980330</v>
+      </c>
+      <c r="U55" t="n">
+        <v>453014</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>3/2/2024</t>
+        </is>
+      </c>
+      <c r="X55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Панельный</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4946514</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/c0c553f7-f882-49bc-9e6d-5ed63adfdc2a/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F56" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>13</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>83551</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4955449</v>
+      </c>
+      <c r="S56" t="n">
+        <v>201441.01626</v>
+      </c>
+      <c r="T56" t="n">
+        <v>5970420</v>
+      </c>
+      <c r="U56" t="n">
+        <v>148663</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4946503</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/23f9261f-2563-4b3c-9267-05118c7b3471/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>25</v>
+      </c>
+      <c r="E57" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="F57" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>83551</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>5036025</v>
+      </c>
+      <c r="S57" t="n">
+        <v>201441</v>
+      </c>
+      <c r="T57" t="n">
+        <v>6067500</v>
+      </c>
+      <c r="U57" t="n">
+        <v>151081</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4946546</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/a890b142-d6b7-490a-9b04-4eb6407a8b61/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="F58" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
+      </c>
+      <c r="L58" t="n">
+        <v>24</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>83551</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>5077650</v>
+      </c>
+      <c r="S58" t="n">
+        <v>207251.02041</v>
+      </c>
+      <c r="T58" t="n">
+        <v>6117650</v>
+      </c>
+      <c r="U58" t="n">
+        <v>152330</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3816336</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/21265cd8-1a90-479e-80f6-f47d5df4759d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="E59" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F59" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>13</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>UP! Пушкинский</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>77352</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Лидер Северо-Запад</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>4975593</v>
+      </c>
+      <c r="S59" t="n">
+        <v>201441.01215</v>
+      </c>
+      <c r="T59" t="n">
+        <v>5994690</v>
+      </c>
+      <c r="U59" t="n">
+        <v>149268</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>Монолитно-каркасный</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5166336</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/58692628-2951-4c69-996d-a9fc619f2ede/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>173</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>84828</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>4147044</v>
+      </c>
+      <c r="S60" t="n">
+        <v>195800</v>
+      </c>
+      <c r="T60" t="n">
+        <v>4978444</v>
+      </c>
+      <c r="U60" t="n">
+        <v>66353</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X60" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD60" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3955103</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/98fe1112-01b3-4c14-ac6e-4fb099791137/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>26.44</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>11</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Новое Сертолово</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>77993</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>5584128</v>
+      </c>
+      <c r="S61" t="n">
+        <v>211200</v>
+      </c>
+      <c r="T61" t="n">
+        <v>5584128</v>
+      </c>
+      <c r="U61" t="n">
+        <v>89346</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5850455</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/6f3ab18c-e9c2-4df1-9a96-a8fa2dd92508/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="F62" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>88326</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2 кв. 2026</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3950098</v>
+      </c>
+      <c r="S62" t="n">
+        <v>178253.51986</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4647174</v>
+      </c>
+      <c r="U62" t="n">
+        <v>110603</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2026</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD62" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3859580</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/3b94ced1-7d9e-4a29-b6bf-7a7d7553c6dc/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>224</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ЮгТаун.Греция</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>77546</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>5379900</v>
+      </c>
+      <c r="S63" t="n">
+        <v>227000</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5379900</v>
+      </c>
+      <c r="U63" t="n">
+        <v>86078</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X63" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>Блочно-монолитный</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD63" t="inlineStr">
+        <is>
+          <t>Цессия</t>
+        </is>
+      </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5564069</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/169b13c0-74e5-4afa-a1fa-4431588982ff/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>5</v>
+      </c>
+      <c r="L64" t="n">
+        <v>130</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Ново-Антропшино</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>87094</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Запстрой</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1 кв. 2026</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>3852640</v>
+      </c>
+      <c r="S64" t="n">
+        <v>129023.44273</v>
+      </c>
+      <c r="T64" t="n">
+        <v>4532517.65</v>
+      </c>
+      <c r="U64" t="n">
+        <v>161811</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2026</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>Монолитный</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Рассрочка</t>
+        </is>
+      </c>
+      <c r="AD64" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3955296</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/37ca73cc-d28d-4727-8235-99e44d9f1f42/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>37.47</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="F65" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" t="n">
+        <v>126</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Новое Сертолово</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>77993</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>6680901</v>
+      </c>
+      <c r="S65" t="n">
+        <v>178300</v>
+      </c>
+      <c r="T65" t="n">
+        <v>6680901</v>
+      </c>
+      <c r="U65" t="n">
+        <v>106894</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD65" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3971278</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/ebef2b3b-866a-4837-affb-b3da75a71212/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="E66" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2 лоджии</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Ново-Антропшино</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>77681</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Запстрой</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>7442500</v>
+      </c>
+      <c r="S66" t="n">
+        <v>130000</v>
+      </c>
+      <c r="T66" t="n">
+        <v>8755882.35</v>
+      </c>
+      <c r="U66" t="n">
+        <v>208390</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X66" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Монолитный</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3957909</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/32e37b05-4615-4316-9eaa-0fb009cc3087/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2 сан.узла</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>206</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Новое Сертолово</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>77993</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>9602240</v>
+      </c>
+      <c r="S67" t="n">
+        <v>162200</v>
+      </c>
+      <c r="T67" t="n">
+        <v>9602240</v>
+      </c>
+      <c r="U67" t="n">
+        <v>153636</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X67" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD67" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3955095</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/0616d894-2593-47af-ba21-3b76d4f7108d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="F68" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2 сан.узла</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>15</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Новое Сертолово</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>77993</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>9780660</v>
+      </c>
+      <c r="S68" t="n">
+        <v>162200</v>
+      </c>
+      <c r="T68" t="n">
+        <v>9780660</v>
+      </c>
+      <c r="U68" t="n">
+        <v>156491</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4669854</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/68fd40ab-e97c-4194-8202-22a26f49a4d5/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="E69" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="F69" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>ЮгТаун.Греция</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>82135</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>3 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>9304960</v>
+      </c>
+      <c r="S69" t="n">
+        <v>187600</v>
+      </c>
+      <c r="T69" t="n">
+        <v>9973162</v>
+      </c>
+      <c r="U69" t="n">
+        <v>334979</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X69" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>Блочно-монолитный</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Субсидия, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4121279</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/e13f02d3-5617-4f0f-8309-d9e41e1bf564/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>87.06999999999999</v>
+      </c>
+      <c r="E70" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="F70" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2 сан.узла</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2 лоджии</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>407</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>79000</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>3 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>15800288</v>
+      </c>
+      <c r="S70" t="n">
+        <v>181466.49822</v>
+      </c>
+      <c r="T70" t="n">
+        <v>18588574</v>
+      </c>
+      <c r="U70" t="n">
+        <v>442408</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>3ккв</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X70" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5167250</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/9e660453-e9ce-4ef8-bec5-6e3746f2048a/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="E71" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="F71" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4</v>
+      </c>
+      <c r="L71" t="n">
+        <v>174</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>84829</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>6119805</v>
+      </c>
+      <c r="S71" t="n">
+        <v>207100</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7346705</v>
+      </c>
+      <c r="U71" t="n">
+        <v>159115</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>4/2/2024</t>
+        </is>
+      </c>
+      <c r="X71" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>3.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5167262</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/7fe7d413-0071-4c82-9994-cae8d87d5c54/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>24.72</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="F72" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>4</v>
+      </c>
+      <c r="L72" t="n">
+        <v>210</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>84829</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>3 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4630056</v>
+      </c>
+      <c r="S72" t="n">
+        <v>187300</v>
+      </c>
+      <c r="T72" t="n">
+        <v>5558291</v>
+      </c>
+      <c r="U72" t="n">
+        <v>74081</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X72" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5558606</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/41b624a4-4dae-4977-8389-ca2f67a57205/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="E73" t="n">
+        <v>18</v>
+      </c>
+      <c r="F73" t="n">
+        <v>18</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>115</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>87055</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>4 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>4350064</v>
+      </c>
+      <c r="S73" t="n">
+        <v>180650.49834</v>
+      </c>
+      <c r="T73" t="n">
+        <v>5117722</v>
+      </c>
+      <c r="U73" t="n">
+        <v>121802</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X73" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5850466</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/bd846894-ca87-4e7c-b466-80931974945b/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="F74" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>29</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Парадный Ансамбль</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>88326</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Московский р-н</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>2 кв. 2026</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4050149</v>
+      </c>
+      <c r="S74" t="n">
+        <v>184433.01457</v>
+      </c>
+      <c r="T74" t="n">
+        <v>4764881</v>
+      </c>
+      <c r="U74" t="n">
+        <v>113404</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2026</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3567764</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/02b49ce2-75b3-41c6-a4ff-1c2c9a77c64d/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>4</v>
+      </c>
+      <c r="L75" t="n">
+        <v>40</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Верево-Сити</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>76156</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>НСК (от физ лица)</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>4518750</v>
+      </c>
+      <c r="S75" t="n">
+        <v>125000</v>
+      </c>
+      <c r="T75" t="n">
+        <v>4518750</v>
+      </c>
+      <c r="U75" t="n">
+        <v>108450</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X75" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2022</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Встроено-пристроенная </t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>К-П</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5560075</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/88a0b099-7a81-410a-b47e-09776a99586c/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>33.24</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="F76" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Подготовка под чистовую отделку</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>18</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Ново-Антропшино</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>87071</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Запстрой</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Гатчинский р-н</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>4 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>4205280</v>
+      </c>
+      <c r="S76" t="n">
+        <v>126512.63538</v>
+      </c>
+      <c r="T76" t="n">
+        <v>4947388.24</v>
+      </c>
+      <c r="U76" t="n">
+        <v>176622</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X76" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>Монолитный</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Рассрочка</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4930868</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/382fab1c-8b00-4c23-b6af-f8e49926ceee/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>37.39</v>
+      </c>
+      <c r="E77" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="F77" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Черновая отделка</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>терраса</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>5</v>
+      </c>
+      <c r="L77" t="n">
+        <v>208</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Счастье 2.0</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>83463</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>ЛенСтройГрад</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Тосненский р-н</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>1 кв. 2025</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4593362</v>
+      </c>
+      <c r="S77" t="n">
+        <v>122850.01337</v>
+      </c>
+      <c r="T77" t="n">
+        <v>4593362</v>
+      </c>
+      <c r="U77" t="n">
+        <v>110241</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2025</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Ипотека, Субсидия, Военная ипотека, Материнский капитал</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3859192</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/963d60cf-d754-44e0-b9bb-789e2700ad05/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>38.3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F78" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>5</v>
+      </c>
+      <c r="L78" t="n">
+        <v>51</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>ЮгТаун.Греция</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>77545</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Пушкинский р-н</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>7610210</v>
+      </c>
+      <c r="S78" t="n">
+        <v>198700</v>
+      </c>
+      <c r="T78" t="n">
+        <v>7610210</v>
+      </c>
+      <c r="U78" t="n">
+        <v>121763</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X78" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Блочно-монолитный</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдельная </t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>Цессия</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/3955345</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/2dddba0f-e22d-4d91-bb3a-1b219284a1d1/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="E79" t="n">
+        <v>25.36</v>
+      </c>
+      <c r="F79" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2 сан.узла</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="n">
+        <v>5</v>
+      </c>
+      <c r="L79" t="n">
+        <v>170</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Новое Сертолово</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>77993</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Всеволожский р-н</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>9262995</v>
+      </c>
+      <c r="S79" t="n">
+        <v>164500</v>
+      </c>
+      <c r="T79" t="n">
+        <v>9262995</v>
+      </c>
+      <c r="U79" t="n">
+        <v>148208</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Ипотека, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5867519</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/21bc6f73-d21f-4aba-a7f2-79ad452de4b1/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>лоджия</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>281</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>79130</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>11100035</v>
+      </c>
+      <c r="S80" t="n">
+        <v>213052.4952</v>
+      </c>
+      <c r="T80" t="n">
+        <v>13058865</v>
+      </c>
+      <c r="U80" t="n">
+        <v>310801</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>2ккв</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X80" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/4617407</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/ef4411cc-9197-42c6-986a-1a5937c59f2b/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="F81" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Раздельный</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>4</v>
+      </c>
+      <c r="L81" t="n">
+        <v>118</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Любоград</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>80634</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>КВС</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Петродворцовый р-н</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>3 кв. 2024</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>13516320</v>
+      </c>
+      <c r="S81" t="n">
+        <v>194200</v>
+      </c>
+      <c r="T81" t="n">
+        <v>14486945</v>
+      </c>
+      <c r="U81" t="n">
+        <v>216261</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>3ккв</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X81" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2024</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Есть</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>Ипотека, Рассрочка, Военная ипотека</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>ДДУ</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://spb.nmarket.pro/presentation-new/realtyobject/5859071</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://img.nmarket.pro/photo/pid/a0a9dd1e-3b6f-4fc2-bb3e-a01e297f41c5/?type=png&amp;v=1&amp;wpsid=8</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="F82" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Отделка "под ключ"</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Совмещенный</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>балкон</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>207</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Солнечный город. Резиденции</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>79130</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Setl Group</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Красносельский р-н</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Сдан</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>7400467</v>
+      </c>
+      <c r="S82" t="n">
+        <v>225623.9939</v>
+      </c>
+      <c r="T82" t="n">
+        <v>8706432</v>
+      </c>
+      <c r="U82" t="n">
+        <v>207213</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>1ккв</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>5/2/2024</t>
+        </is>
+      </c>
+      <c r="X82" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2023</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>Кирпично-монолитный</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Подземная </t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>ПДКП</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>3.2.2024</t>
         </is>
       </c>
     </row>
